--- a/input/prices.xlsx
+++ b/input/prices.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESchr\workspace\uni\ATIS3\Single_Project\ATIES3_single_project_ES\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EF464D41-753E-45CC-ACC4-D633599D5192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C677FF5F-CD7D-4BDC-BFA1-C8B6DB66CDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>02.01.2021 00:00 - 02.01.2021 01:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Day_Ahead_Price</t>
   </si>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,11 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8762"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G8758" sqref="G8758"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,13 +882,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/input/prices.xlsx
+++ b/input/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESchr\workspace\uni\ATIS3\Single_Project\ATIES3_single_project_ES\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C677FF5F-CD7D-4BDC-BFA1-C8B6DB66CDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF9BE4B-10CD-4E91-B963-52D20ADA1FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8762"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A2698" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2069" sqref="C2069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23624,6 +23624,9 @@
       <c r="B2068">
         <v>2</v>
       </c>
+      <c r="C2068">
+        <v>37.03</v>
+      </c>
     </row>
     <row r="2069" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2069">
